--- a/The bubble line CPU/工程表.xlsx
+++ b/The bubble line CPU/工程表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="控制信号" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据通路!$B$34:$B$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据通路!$A$33:$A$62</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2990,7 +2990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3376,17 +3376,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -3404,35 +3393,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -3481,7 +3441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3571,40 +3531,13 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3745,17 +3678,29 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3807,26 +3752,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4108,2144 +4041,2072 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ64"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.125" style="8"/>
-    <col min="2" max="2" width="6.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.75" style="8" customWidth="1"/>
-    <col min="15" max="15" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="31.125" style="8"/>
+    <col min="1" max="1" width="6.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" style="8" customWidth="1"/>
+    <col min="14" max="14" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="31.125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="15"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="102" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A1" s="97" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="B1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="C1" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="D1" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100" t="s">
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="100" t="s">
+      <c r="K1" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="96" t="s">
+      <c r="L1" s="96"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="94" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="R2" s="91" t="s">
+      <c r="Q1" s="86" t="s">
         <v>273</v>
       </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="93"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="9" t="s">
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="88"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="104"/>
-      <c r="L3" s="9" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="20" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="8" t="s">
+      <c r="P2" s="90"/>
+      <c r="Q2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>192</v>
       </c>
+      <c r="S2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="T3" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="23" t="s">
-        <v>56</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP5" s="15"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="20" t="s">
+      <c r="L6" s="24"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="U4" s="8" t="s">
+      <c r="O6" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="V6" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="AP6" s="15"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="W5" s="8" t="s">
+      <c r="I7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="V7" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AC5" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="AP7" s="15"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE6" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="AQ6" s="15"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AQ7" s="15"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="W8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="V8" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AQ8" s="15"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="23" t="s">
-        <v>61</v>
+      <c r="AB8" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP8" s="15"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="W9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>262</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="AC9" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AE9" s="8" t="s">
+      <c r="AP9" s="15"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AF9" s="8" t="s">
+      <c r="V10" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AP10" s="15"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="T11" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="AQ9" s="15"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="V11" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP11" s="15"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="U10" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="V12" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="W10" s="8" t="s">
+      <c r="AP12" s="15"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="V13" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AA10" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD10" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AQ10" s="15"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="AP13" s="15"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AQ11" s="15"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA12" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC12" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD12" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AQ12" s="15"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AQ13" s="15"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>98</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="20" t="s">
+      <c r="L15" s="24"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="W14" s="8" t="s">
+      <c r="O15" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="V15" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AQ14" s="15"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="8" t="s">
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="W15" s="8" t="s">
+      <c r="D16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="V16" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AC15" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE15" s="8" t="s">
+      <c r="X16" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD16" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="AF15" s="8" t="s">
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB17" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="AD17" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="U16" s="8" t="s">
+      <c r="D18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="16"/>
+      <c r="AD18" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="W16" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="AH18" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="D19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y17" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE17" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE18" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM18" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="R19" s="16"/>
-      <c r="AE19" s="8" t="s">
+      <c r="L19" s="24"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="16"/>
+      <c r="AD19" s="8" t="s">
         <v>225</v>
       </c>
       <c r="AI19" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="23" t="s">
-        <v>72</v>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K20" s="8" t="s">
+      <c r="D21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="R20" s="16"/>
-      <c r="AE20" s="8" t="s">
+      <c r="L21" s="24"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD21" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="AJ20" s="8" t="s">
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="24"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="24"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="U24" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="V24" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF24" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="20" t="s">
+      <c r="D25" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="24"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="P21" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="U21" s="8" t="s">
+      <c r="O25" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF25" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="W21" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="W22" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC22" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE22" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG24" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="V25" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="W25" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="X25" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="AG25" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="23" t="s">
-        <v>78</v>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26" s="24"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB26" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK26" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="20" t="s">
+      <c r="D27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="24"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD27" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ27" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="P26" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG26" s="8" t="s">
+      <c r="O28" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="V28" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AH26" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="23" t="s">
+      <c r="Z28" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="24"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB29" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD29" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="X30" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y30" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB30" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD30" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="M31" s="30"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="93"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>2</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>3</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>4</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>5</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>6</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>7</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>8</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>9</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>10</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>11</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>12</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>13</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>14</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>15</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>16</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>17</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>18</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
+        <v>19</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
+        <v>20</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
+        <v>21</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
+        <v>22</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>23</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
+        <v>24</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC27" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AL27" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE28" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK28" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="W29" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA29" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB29" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="W30" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC30" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE30" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q31" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R31" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="W31" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y31" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z31" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC31" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE31" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="M32" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="20"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="99" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="98" t="s">
-        <v>298</v>
-      </c>
-      <c r="E34" s="98" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="98"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="12">
-        <v>1</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="12">
-        <v>2</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="12">
-        <v>3</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="12">
-        <v>4</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="12">
-        <v>5</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="12">
-        <v>6</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="12">
-        <v>7</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="12">
-        <v>8</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="12">
-        <v>9</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="12">
-        <v>10</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="12">
-        <v>11</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="12">
-        <v>12</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="12">
-        <v>13</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="12">
-        <v>14</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="13" t="s">
+      <c r="D58" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="12">
-        <v>15</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="12">
-        <v>16</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="12">
-        <v>17</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="12">
-        <v>18</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="12">
-        <v>19</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="12">
-        <v>20</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="12">
-        <v>21</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B57" s="12">
-        <v>22</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="12">
-        <v>23</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="12">
-        <v>24</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="B34:B63">
-    <sortState ref="B37:AN63">
-      <sortCondition ref="B1:B30"/>
+  <autoFilter ref="A33:A62">
+    <sortState ref="A37:AM63">
+      <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="R2:AK2"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="Q1:AJ1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23958333333333334" right="0.20833333333333334" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6257,7 +6118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -6565,7 +6426,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="100" t="s">
         <v>293</v>
       </c>
       <c r="C28" s="6">
@@ -6579,7 +6440,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="106"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="6">
         <v>8</v>
       </c>
@@ -6618,291 +6479,291 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="111" t="s">
+    <row r="34" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="102" t="s">
         <v>354</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-    </row>
-    <row r="35" spans="2:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="110" t="s">
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+    </row>
+    <row r="35" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="83" t="s">
         <v>347</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="E35" s="110" t="s">
+      <c r="E35" s="83" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="110" t="s">
+    <row r="36" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="D36" s="110">
+      <c r="D36" s="83">
         <v>32</v>
       </c>
-      <c r="E36" s="112" t="s">
+      <c r="E36" s="84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="110" t="s">
+    <row r="37" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="D37" s="110">
+      <c r="D37" s="83">
         <v>32</v>
       </c>
-      <c r="E37" s="112" t="s">
+      <c r="E37" s="84" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="110" t="s">
+    <row r="38" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="C38" s="110" t="s">
+      <c r="C38" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="D38" s="110">
+      <c r="D38" s="83">
         <v>4</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="85" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="110" t="s">
+    <row r="39" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="D39" s="110">
+      <c r="D39" s="83">
         <v>32</v>
       </c>
-      <c r="E39" s="112" t="s">
+      <c r="E39" s="84" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="110" t="s">
+    <row r="40" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="C40" s="110" t="s">
+      <c r="C40" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="D40" s="110">
+      <c r="D40" s="83">
         <v>32</v>
       </c>
-      <c r="E40" s="112" t="s">
+      <c r="E40" s="84" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="110" t="s">
+    <row r="41" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="D41" s="110">
+      <c r="D41" s="83">
         <v>1</v>
       </c>
-      <c r="E41" s="112" t="s">
+      <c r="E41" s="84" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="110" t="s">
+    <row r="42" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="D42" s="110">
+      <c r="D42" s="83">
         <v>1</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="85" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="110" t="s">
+    <row r="43" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="83" t="s">
         <v>342</v>
       </c>
-      <c r="C43" s="110" t="s">
+      <c r="C43" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="D43" s="110">
+      <c r="D43" s="83">
         <v>1</v>
       </c>
-      <c r="E43" s="112" t="s">
+      <c r="E43" s="84" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F45" s="110" t="s">
+      <c r="F45" s="83" t="s">
         <v>374</v>
       </c>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="83" t="s">
         <v>369</v>
       </c>
-      <c r="H45" s="110" t="s">
+      <c r="H45" s="83" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="F46" s="110">
+      <c r="F46" s="83">
         <v>0</v>
       </c>
-      <c r="G46" s="110">
+      <c r="G46" s="83">
         <v>0</v>
       </c>
-      <c r="H46" s="112" t="s">
+      <c r="H46" s="84" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="F47" s="110">
+      <c r="F47" s="83">
         <v>1</v>
       </c>
-      <c r="G47" s="110">
+      <c r="G47" s="83">
         <v>1</v>
       </c>
-      <c r="H47" s="112" t="s">
+      <c r="H47" s="84" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="F48" s="110">
+      <c r="F48" s="83">
         <v>10</v>
       </c>
-      <c r="G48" s="110">
+      <c r="G48" s="83">
         <v>2</v>
       </c>
-      <c r="H48" s="112" t="s">
+      <c r="H48" s="84" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="49" spans="6:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="F49" s="110">
+      <c r="F49" s="83">
         <v>11</v>
       </c>
-      <c r="G49" s="110">
+      <c r="G49" s="83">
         <v>3</v>
       </c>
-      <c r="H49" s="112" t="s">
+      <c r="H49" s="84" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F50" s="110">
+      <c r="F50" s="83">
         <v>100</v>
       </c>
-      <c r="G50" s="110">
+      <c r="G50" s="83">
         <v>4</v>
       </c>
-      <c r="H50" s="112" t="s">
+      <c r="H50" s="84" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F51" s="110">
+      <c r="F51" s="83">
         <v>101</v>
       </c>
-      <c r="G51" s="110">
+      <c r="G51" s="83">
         <v>5</v>
       </c>
-      <c r="H51" s="112" t="s">
+      <c r="H51" s="84" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F52" s="110">
+      <c r="F52" s="83">
         <v>110</v>
       </c>
-      <c r="G52" s="110">
+      <c r="G52" s="83">
         <v>6</v>
       </c>
-      <c r="H52" s="112" t="s">
+      <c r="H52" s="84" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F53" s="110">
+      <c r="F53" s="83">
         <v>111</v>
       </c>
-      <c r="G53" s="110">
+      <c r="G53" s="83">
         <v>7</v>
       </c>
-      <c r="H53" s="112" t="s">
+      <c r="H53" s="84" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F54" s="110">
+      <c r="F54" s="83">
         <v>1000</v>
       </c>
-      <c r="G54" s="110">
+      <c r="G54" s="83">
         <v>8</v>
       </c>
-      <c r="H54" s="112" t="s">
+      <c r="H54" s="84" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F55" s="110">
+      <c r="F55" s="83">
         <v>1001</v>
       </c>
-      <c r="G55" s="110">
+      <c r="G55" s="83">
         <v>9</v>
       </c>
-      <c r="H55" s="112" t="s">
+      <c r="H55" s="84" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="56" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F56" s="110">
+      <c r="F56" s="83">
         <v>1010</v>
       </c>
-      <c r="G56" s="110">
+      <c r="G56" s="83">
         <v>10</v>
       </c>
-      <c r="H56" s="112" t="s">
+      <c r="H56" s="84" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="57" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F57" s="110">
+      <c r="F57" s="83">
         <v>1011</v>
       </c>
-      <c r="G57" s="110">
+      <c r="G57" s="83">
         <v>11</v>
       </c>
-      <c r="H57" s="112" t="s">
+      <c r="H57" s="84" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="58" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F58" s="110">
+      <c r="F58" s="83">
         <v>1100</v>
       </c>
-      <c r="G58" s="110">
+      <c r="G58" s="83">
         <v>12</v>
       </c>
-      <c r="H58" s="112" t="s">
+      <c r="H58" s="84" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6927,67 +6788,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.375" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.875" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4" style="45" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.75" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.375" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4" style="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.375" style="45" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.875" style="45" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.375" style="45" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3" style="45" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.375" style="45" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="11.625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.75" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.25" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.25" style="36" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3" style="36" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.25" style="36" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="44"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="35"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
@@ -7021,145 +6882,145 @@
       <c r="AC2" s="24"/>
     </row>
     <row r="3" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="47" t="s">
+      <c r="T3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="47" t="s">
+      <c r="V3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="47" t="s">
+      <c r="W3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="X3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="47" t="s">
+      <c r="Y3" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="Z3" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="47" t="s">
+      <c r="AA3" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="47" t="s">
+      <c r="AB3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="48" t="s">
+      <c r="AC3" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51" t="s">
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51" t="s">
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="53"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="44"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="45" t="s">
         <v>282</v>
       </c>
       <c r="B5" s="15"/>
@@ -7218,7 +7079,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="45" t="s">
         <v>327</v>
       </c>
       <c r="B6" s="15"/>
@@ -7271,10 +7132,10 @@
       <c r="AC6" s="24"/>
     </row>
     <row r="7" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
         <v>331</v>
@@ -7303,8 +7164,8 @@
       </c>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
       <c r="U7" s="27" t="s">
         <v>331</v>
       </c>
@@ -7330,313 +7191,313 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="51"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="63"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="54"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="N10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="O10" s="62" t="s">
+      <c r="O10" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="63"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="54"/>
     </row>
     <row r="11" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="66"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="57"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68" t="s">
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="M12" s="68" t="s">
+      <c r="M12" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="N12" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68" t="s">
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68" t="s">
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="V12" s="68" t="s">
+      <c r="V12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="W12" s="68" t="s">
+      <c r="W12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="X12" s="68" t="s">
+      <c r="X12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="Y12" s="68" t="s">
+      <c r="Y12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="Z12" s="68" t="s">
+      <c r="Z12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AA12" s="68" t="s">
+      <c r="AA12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AB12" s="68" t="s">
+      <c r="AB12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AC12" s="69"/>
+      <c r="AC12" s="60"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="63"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="54"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="AB14" s="62" t="s">
+      <c r="AB14" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="AC14" s="63"/>
+      <c r="AC14" s="54"/>
     </row>
     <row r="15" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -7674,45 +7535,45 @@
       <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="53"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="44"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
@@ -7809,695 +7670,695 @@
       </c>
     </row>
     <row r="19" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="66"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="57"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68" t="s">
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="T20" s="68" t="s">
+      <c r="T20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="U20" s="68" t="s">
+      <c r="U20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="V20" s="68" t="s">
+      <c r="V20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="W20" s="68" t="s">
+      <c r="W20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="X20" s="68" t="s">
+      <c r="X20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="Y20" s="68" t="s">
+      <c r="Y20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="Z20" s="68" t="s">
+      <c r="Z20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AA20" s="68" t="s">
+      <c r="AA20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AB20" s="68" t="s">
+      <c r="AB20" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AC20" s="69" t="s">
+      <c r="AC20" s="60" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="Z21" s="62" t="s">
+      <c r="Z21" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="63"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="54"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="R22" s="62" t="s">
+      <c r="R22" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="63"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="54"/>
     </row>
     <row r="23" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="66"/>
-    </row>
-    <row r="24" spans="1:40" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="57"/>
+    </row>
+    <row r="24" spans="1:40" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="69"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-    </row>
-    <row r="25" spans="1:40" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="60"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+    </row>
+    <row r="25" spans="1:40" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="63"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-    </row>
-    <row r="26" spans="1:40" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61" t="s">
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="54"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="36"/>
+    </row>
+    <row r="26" spans="1:40" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="63"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="54"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
     </row>
     <row r="27" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73" t="s">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="74"/>
-    </row>
-    <row r="28" spans="1:40" s="85" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="65"/>
+    </row>
+    <row r="28" spans="1:40" s="76" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="89" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="80" t="s">
         <v>331</v>
       </c>
-      <c r="AD28" s="86"/>
+      <c r="AD28" s="77"/>
     </row>
     <row r="29" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="107"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="108"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="104"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="75"/>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="75"/>
-      <c r="AC30" s="76"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="67"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A31" s="80"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="68"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="80"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="77"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="77"/>
-      <c r="Y34" s="77"/>
-      <c r="Z34" s="77"/>
-      <c r="AA34" s="77"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="77"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="82"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="77"/>
-      <c r="U35" s="77"/>
-      <c r="V35" s="77"/>
-      <c r="W35" s="77"/>
-      <c r="X35" s="77"/>
-      <c r="Y35" s="77"/>
-      <c r="Z35" s="77"/>
-      <c r="AA35" s="77"/>
-      <c r="AB35" s="77"/>
-      <c r="AC35" s="77"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
     </row>
     <row r="36" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="77"/>
-      <c r="T36" s="77"/>
-      <c r="U36" s="77"/>
-      <c r="V36" s="77"/>
-      <c r="W36" s="77"/>
-      <c r="X36" s="77"/>
-      <c r="Y36" s="77"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="77"/>
-      <c r="AB36" s="77"/>
-      <c r="AC36" s="77"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="84"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="84"/>
-      <c r="AC37" s="84"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
